--- a/测试文件_模拟钉钉导出的周报.xlsx
+++ b/测试文件_模拟钉钉导出的周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="88">
   <si>
     <t>工号</t>
   </si>
@@ -128,6 +128,9 @@
     <t>MME connmgr/0 crash exit-code 139 on MME version 1.6.44.</t>
   </si>
   <si>
+    <t>If there is a DCN for ue,  should select  using ue-usage-type.</t>
+  </si>
+  <si>
     <t>In progress</t>
   </si>
   <si>
@@ -186,6 +189,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">write doc </t>
     </r>
     <r>
@@ -240,7 +248,7 @@
     <t xml:space="preserve"> should support S6B in 3GPP Access to Untrusted Non-3GPP IP Access Handover with GTP on S2b</t>
   </si>
   <si>
-    <t>Finish codeing without trace. Finish test by smf-tester.
+    <t>Finish codeing without trace. Finish test by -tester.
 Waiting for merge</t>
   </si>
   <si>
@@ -270,10 +278,10 @@
     <t>50.00%</t>
   </si>
   <si>
-    <t xml:space="preserve"> doesnot reply mme with Forward Relocation Response when doesnot discover a smf.</t>
-  </si>
-  <si>
-    <t>Find that  can't register to nrf with pgwFQDN now.
+    <t xml:space="preserve"> doesnot reply  with Forward Relocation Response when doesnot discover a .</t>
+  </si>
+  <si>
+    <t>Find that  can't register to  with pgwFQDN now.
 Related  bug id are
 GCS- and GCS-</t>
   </si>
@@ -814,7 +822,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1572,13 +1580,13 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -1637,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
@@ -1646,10 +1654,10 @@
         <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>28</v>
@@ -1705,20 +1713,20 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
@@ -1730,10 +1738,10 @@
         <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>28</v>
@@ -1757,13 +1765,13 @@
         <v>32</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:24">
@@ -1786,11 +1794,11 @@
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>27</v>
@@ -1858,17 +1866,17 @@
         <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
@@ -1930,17 +1938,17 @@
         <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
@@ -1999,7 +2007,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>28</v>
@@ -2008,10 +2016,10 @@
         <v>31</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="2" t="s">
@@ -2071,7 +2079,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>28</v>
@@ -2080,10 +2088,10 @@
         <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
@@ -2143,7 +2151,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>28</v>
@@ -2152,10 +2160,10 @@
         <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
@@ -2209,35 +2217,35 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="2" t="s">
@@ -2259,13 +2267,13 @@
         <v>32</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="37.5" spans="1:24">
@@ -2279,38 +2287,38 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="M15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>31</v>
@@ -2331,13 +2339,13 @@
         <v>32</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="56.25" spans="1:24">
@@ -2357,20 +2365,20 @@
         <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>31</v>
@@ -2423,23 +2431,23 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>28</v>
@@ -2448,10 +2456,10 @@
         <v>24</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>28</v>
@@ -2475,13 +2483,13 @@
         <v>32</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="56.25" spans="1:24">
@@ -2504,26 +2512,26 @@
         <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>28</v>
@@ -2567,23 +2575,23 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>28</v>
@@ -2592,13 +2600,13 @@
         <v>24</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>31</v>
@@ -2619,13 +2627,13 @@
         <v>32</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:24">
@@ -2648,17 +2656,17 @@
         <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>31</v>
@@ -2711,29 +2719,29 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>28</v>
@@ -2742,7 +2750,7 @@
         <v>28</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>31</v>
@@ -2763,13 +2771,13 @@
         <v>32</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:24">
@@ -2789,7 +2797,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -2798,10 +2806,10 @@
         <v>28</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>28</v>
@@ -2857,13 +2865,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>28</v>
@@ -2872,10 +2880,10 @@
         <v>28</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>28</v>
@@ -2911,13 +2919,13 @@
         <v>32</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:24">
@@ -2937,7 +2945,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
@@ -2946,10 +2954,10 @@
         <v>28</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>28</v>
